--- a/data_year/zb/农业/主要林产品产量.xlsx
+++ b/data_year/zb/农业/主要林产品产量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,515 +468,299 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4724</v>
+        <v>8089.6</v>
       </c>
       <c r="C2" t="n">
-        <v>551057</v>
+        <v>1115711</v>
       </c>
       <c r="D2" t="n">
-        <v>480248</v>
+        <v>693021.7</v>
       </c>
       <c r="E2" t="n">
-        <v>453461</v>
+        <v>433624</v>
       </c>
       <c r="F2" t="n">
-        <v>823224</v>
+        <v>1092243</v>
       </c>
       <c r="G2" t="n">
-        <v>5279</v>
+        <v>20093</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4552.03</v>
+        <v>8145.9226</v>
       </c>
       <c r="C3" t="n">
-        <v>564000</v>
+        <v>1156612</v>
       </c>
       <c r="D3" t="n">
-        <v>477000</v>
+        <v>750849.9399999999</v>
       </c>
       <c r="E3" t="n">
-        <v>407000</v>
+        <v>437702</v>
       </c>
       <c r="F3" t="n">
-        <v>825000</v>
+        <v>1480044</v>
       </c>
       <c r="G3" t="n">
-        <v>5116</v>
+        <v>18867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4436.07</v>
+        <v>8174.8679</v>
       </c>
       <c r="C4" t="n">
-        <v>567000</v>
+        <v>1215065</v>
       </c>
       <c r="D4" t="n">
-        <v>527000</v>
+        <v>802254.55</v>
       </c>
       <c r="E4" t="n">
-        <v>389000</v>
+        <v>427048</v>
       </c>
       <c r="F4" t="n">
-        <v>853000</v>
+        <v>1727708</v>
       </c>
       <c r="G4" t="n">
-        <v>7000</v>
+        <v>26027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4758.87</v>
+        <v>8438.495000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>625757</v>
+        <v>1307747</v>
       </c>
       <c r="D5" t="n">
-        <v>565000</v>
+        <v>864805.87</v>
       </c>
       <c r="E5" t="n">
-        <v>372645</v>
+        <v>418924</v>
       </c>
       <c r="F5" t="n">
-        <v>779492</v>
+        <v>1776506</v>
       </c>
       <c r="G5" t="n">
-        <v>8664</v>
+        <v>25154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5197.33212</v>
+        <v>8233.2955</v>
       </c>
       <c r="C6" t="n">
-        <v>673000</v>
+        <v>1309520</v>
       </c>
       <c r="D6" t="n">
-        <v>575000</v>
+        <v>840171.37</v>
       </c>
       <c r="E6" t="n">
-        <v>381428.3</v>
+        <v>416065</v>
       </c>
       <c r="F6" t="n">
-        <v>874861</v>
+        <v>2023445</v>
       </c>
       <c r="G6" t="n">
-        <v>9641</v>
+        <v>22290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5560.3</v>
+        <v>7200.2922</v>
       </c>
       <c r="C7" t="n">
-        <v>767134</v>
+        <v>1326292</v>
       </c>
       <c r="D7" t="n">
-        <v>513618.06</v>
+        <v>816102.51</v>
       </c>
       <c r="E7" t="n">
-        <v>368688</v>
+        <v>412042</v>
       </c>
       <c r="F7" t="n">
-        <v>875022</v>
+        <v>2163492</v>
       </c>
       <c r="G7" t="n">
-        <v>14316</v>
+        <v>22806</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6611.7786</v>
+        <v>7775.8659</v>
       </c>
       <c r="C8" t="n">
-        <v>908784</v>
+        <v>1328877</v>
       </c>
       <c r="D8" t="n">
-        <v>537983.3</v>
+        <v>815917.95</v>
       </c>
       <c r="E8" t="n">
-        <v>382989</v>
+        <v>408518</v>
       </c>
       <c r="F8" t="n">
-        <v>919947</v>
+        <v>2164440</v>
       </c>
       <c r="G8" t="n">
-        <v>20762</v>
+        <v>21934</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6976.6491</v>
+        <v>8398.1692</v>
       </c>
       <c r="C9" t="n">
-        <v>965618</v>
+        <v>1443868</v>
       </c>
       <c r="D9" t="n">
-        <v>588390</v>
+        <v>817365.89</v>
       </c>
       <c r="E9" t="n">
-        <v>361285</v>
+        <v>370083</v>
       </c>
       <c r="F9" t="n">
-        <v>939096</v>
+        <v>2431647</v>
       </c>
       <c r="G9" t="n">
-        <v>12891</v>
+        <v>18145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8108.3426</v>
+        <v>8810.863799999999</v>
       </c>
       <c r="C10" t="n">
-        <v>849205</v>
+        <v>1375367</v>
       </c>
       <c r="D10" t="n">
-        <v>547861.4300000001</v>
+        <v>824092.71</v>
       </c>
       <c r="E10" t="n">
-        <v>370966</v>
+        <v>348173</v>
       </c>
       <c r="F10" t="n">
-        <v>989859</v>
+        <v>2629796</v>
       </c>
       <c r="G10" t="n">
-        <v>15526</v>
+        <v>18882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7068.2913</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1046579</v>
-      </c>
+        <v>10045.8549</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>619138.4300000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>367287</v>
-      </c>
+        <v>809858.7</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1169289</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20498</v>
-      </c>
+        <v>2679270</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8089.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1115711</v>
-      </c>
+        <v>10257.013</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>693021.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>433624</v>
-      </c>
+        <v>826348.22</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1092243</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20093</v>
-      </c>
+        <v>3141620</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8145.9226</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1156612</v>
-      </c>
+        <v>11589.1081</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>750849.9399999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>437702</v>
-      </c>
+        <v>871600.29</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1480044</v>
-      </c>
-      <c r="G13" t="n">
-        <v>18867</v>
-      </c>
+        <v>3942376</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8174.8679</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1215065</v>
-      </c>
-      <c r="D14" t="n">
-        <v>802254.55</v>
-      </c>
-      <c r="E14" t="n">
-        <v>427048</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1727708</v>
-      </c>
-      <c r="G14" t="n">
-        <v>26027</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8438.495000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1307747</v>
-      </c>
-      <c r="D15" t="n">
-        <v>864805.87</v>
-      </c>
-      <c r="E15" t="n">
-        <v>418924</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1776506</v>
-      </c>
-      <c r="G15" t="n">
-        <v>25154</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8233.2955</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1309520</v>
-      </c>
-      <c r="D16" t="n">
-        <v>840171.37</v>
-      </c>
-      <c r="E16" t="n">
-        <v>416065</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2023445</v>
-      </c>
-      <c r="G16" t="n">
-        <v>22290</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7200.2922</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1326292</v>
-      </c>
-      <c r="D17" t="n">
-        <v>816102.51</v>
-      </c>
-      <c r="E17" t="n">
-        <v>412042</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2163492</v>
-      </c>
-      <c r="G17" t="n">
-        <v>22806</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7775.8659</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1328877</v>
-      </c>
-      <c r="D18" t="n">
-        <v>815917.95</v>
-      </c>
-      <c r="E18" t="n">
-        <v>408518</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2164440</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21934</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8398.1692</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1443868</v>
-      </c>
-      <c r="D19" t="n">
-        <v>817365.89</v>
-      </c>
-      <c r="E19" t="n">
-        <v>370083</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2431647</v>
-      </c>
-      <c r="G19" t="n">
-        <v>18145</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8810.863799999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1375367</v>
-      </c>
-      <c r="D20" t="n">
-        <v>824092.71</v>
-      </c>
-      <c r="E20" t="n">
-        <v>348173</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2629796</v>
-      </c>
-      <c r="G20" t="n">
-        <v>18882</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10045.8549</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>809858.7</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>2679270</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>10257.013</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>826348.22</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>3141620</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>10693</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
